--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426856.325372369</v>
+        <v>3419683.036662085</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>37.4268167426368</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>204.9607408318209</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>20.15327586578737</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>44.5666619001514</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>71.30468686766744</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464232</v>
+        <v>161.9832655510883</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>102.6478341170266</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385214</v>
+        <v>120.1819171385221</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>221.0270262658049</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989483864</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281875</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>190.3900191751683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.92875790505473</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55.13957087283221</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322691</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>65.39887985774716</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>172.7067178467373</v>
       </c>
       <c r="U13" t="n">
-        <v>47.82370529318936</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.2633391652613</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056523</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.485985000257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274043</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>93.48193440482363</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>120.4939236269526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>70.14968808829745</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.6970786618131</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111319</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>6.676726378580178</v>
       </c>
       <c r="C37" t="n">
-        <v>67.62960647440801</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.55584844405769</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>215.4901669186806</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>209.7181071548279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>42.73966146813947</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>104.5350431010601</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.7893333662366</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="C2" t="n">
-        <v>617.7893333662366</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="D2" t="n">
-        <v>617.7893333662366</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="E2" t="n">
-        <v>338.843359929514</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="F2" t="n">
-        <v>59.89738649279127</v>
+        <v>523.4729093258054</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>755.1452239840681</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029593</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029593</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029593</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="W2" t="n">
-        <v>896.7353068029593</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="X2" t="n">
-        <v>617.7893333662366</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.7893333662366</v>
+        <v>530.4184100750089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="D3" t="n">
-        <v>361.0614026516138</v>
+        <v>528.1786798587304</v>
       </c>
       <c r="E3" t="n">
-        <v>361.0614026516138</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
         <v>222.40666688016</v>
@@ -4406,25 +4406,25 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114808</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N3" t="n">
-        <v>958.7443668768126</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>958.7443668768126</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1084.269210500546</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>912.2651977517244</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196393</v>
+        <v>912.2651977517244</v>
       </c>
       <c r="U3" t="n">
-        <v>406.078232853787</v>
+        <v>912.2651977517244</v>
       </c>
       <c r="V3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="W3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="X3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
       <c r="Y3" t="n">
-        <v>361.0614026516138</v>
+        <v>677.1130895199817</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9677807731686</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.1909590587859</v>
+        <v>558.593829976282</v>
       </c>
       <c r="C5" t="n">
-        <v>516.1909590587859</v>
+        <v>558.593829976282</v>
       </c>
       <c r="D5" t="n">
-        <v>516.1909590587859</v>
+        <v>200.3281313695315</v>
       </c>
       <c r="E5" t="n">
-        <v>516.1909590587859</v>
+        <v>200.3281313695315</v>
       </c>
       <c r="F5" t="n">
-        <v>509.2454583095824</v>
+        <v>193.382630620328</v>
       </c>
       <c r="G5" t="n">
-        <v>133.4478513940034</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="H5" t="n">
-        <v>133.4478513940034</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380457</v>
+        <v>57.64391735380343</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456889</v>
+        <v>220.1747338456864</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039992</v>
+        <v>474.085211203995</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494183</v>
+        <v>773.2160860494123</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.555213635717</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293132</v>
+        <v>1290.582309293122</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935884</v>
+        <v>1447.523776935873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488197</v>
+        <v>1366.762647488183</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488197</v>
+        <v>1366.762647488183</v>
       </c>
       <c r="T5" t="n">
-        <v>1143.503024997485</v>
+        <v>1143.503024997471</v>
       </c>
       <c r="U5" t="n">
-        <v>889.6567173198658</v>
+        <v>889.6567173198526</v>
       </c>
       <c r="V5" t="n">
-        <v>889.6567173198658</v>
+        <v>558.593829976282</v>
       </c>
       <c r="W5" t="n">
-        <v>889.6567173198658</v>
+        <v>558.593829976282</v>
       </c>
       <c r="X5" t="n">
-        <v>516.1909590587859</v>
+        <v>558.593829976282</v>
       </c>
       <c r="Y5" t="n">
-        <v>516.1909590587859</v>
+        <v>558.593829976282</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.1710701731421</v>
+        <v>414.9419224351814</v>
       </c>
       <c r="C6" t="n">
-        <v>222.1710701731421</v>
+        <v>240.4888931540544</v>
       </c>
       <c r="D6" t="n">
-        <v>222.1710701731421</v>
+        <v>91.55448349280314</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782878</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="K6" t="n">
-        <v>195.4097745063033</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524399</v>
+        <v>314.081179613849</v>
       </c>
       <c r="M6" t="n">
-        <v>848.0470181903989</v>
+        <v>581.0776013314371</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903989</v>
+        <v>949.3968358693929</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562719</v>
+        <v>1257.711717241711</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706689</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385693</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785561</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="T6" t="n">
-        <v>1127.172334103573</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="U6" t="n">
-        <v>1127.172334103573</v>
+        <v>1488.15852338568</v>
       </c>
       <c r="V6" t="n">
-        <v>892.0202258718305</v>
+        <v>1253.006415153938</v>
       </c>
       <c r="W6" t="n">
-        <v>637.7828691436289</v>
+        <v>998.7690584257361</v>
       </c>
       <c r="X6" t="n">
-        <v>429.931368938096</v>
+        <v>790.9175582202033</v>
       </c>
       <c r="Y6" t="n">
-        <v>222.1710701731421</v>
+        <v>583.1572594552495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918689</v>
+        <v>77.16595623039515</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918689</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918689</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="F7" t="n">
-        <v>315.2036061918689</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="G7" t="n">
-        <v>315.2036061918689</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="H7" t="n">
-        <v>259.5070699566849</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771386</v>
+        <v>29.76317046771361</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888185</v>
+        <v>32.09990175888104</v>
       </c>
       <c r="L7" t="n">
-        <v>90.6165479061132</v>
+        <v>90.61654790611166</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236696</v>
+        <v>162.7032697236672</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400031</v>
+        <v>238.51054684</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057958</v>
+        <v>292.5145415057921</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918689</v>
+        <v>315.2036061918646</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918689</v>
+        <v>246.1021391583021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822475</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1115.74897888581</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>861.0644906799231</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>861.0644906799231</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>633.0749397819058</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158952</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.490562163493</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9316061372629</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.1390269937327</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1102.545770574205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747283</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.69837048303</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3777.447355009191</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="C25" t="n">
-        <v>3777.447355009191</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>4226.229485050738</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>3998.239934152721</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y25" t="n">
-        <v>3777.447355009191</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3698.949847640843</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>3530.013664712936</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>3530.013664712936</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>3530.013664712936</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>3530.013664712936</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4437.14914771935</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>4147.73197768239</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>3919.742426784373</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>3698.949847640843</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,7 +6448,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6694,40 +6694,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>333.7051469529986</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028587</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W37" t="n">
-        <v>964.1357418247858</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X37" t="n">
-        <v>736.1461909267684</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y37" t="n">
-        <v>515.3536117832383</v>
+        <v>423.3154508994214</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7177,49 +7177,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>272.964375390212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>125.0512818078189</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,16 +7438,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W43" t="n">
-        <v>809.2953582963253</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X43" t="n">
-        <v>597.4588864227617</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.4588864227617</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>290.8064751326855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>236.1308877972191</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>187.2339980518046</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948388</v>
       </c>
       <c r="K6" t="n">
-        <v>241.185394457186</v>
+        <v>97.00923094357636</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835741</v>
+        <v>347.7570777074433</v>
       </c>
       <c r="N6" t="n">
-        <v>65.57565010062326</v>
+        <v>437.6152809470449</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247347</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165105</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735871</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.6461250100637</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>48.8408432116519</v>
       </c>
       <c r="U13" t="n">
-        <v>238.413647105388</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>26.98348193336651</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338483</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>31.22367038878014</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>55.13353861338872</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>166.0290747096385</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>96.34388037508013</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.736883984756105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>173.1552538033571</v>
       </c>
       <c r="C37" t="n">
-        <v>99.61721462421983</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.9377200193199</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>36.64747640514739</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>15.9915482342092</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7539069952381</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>181.9879552355309</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>705687.6684372857</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.85454099</v>
       </c>
-      <c r="J2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.85454099</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.151770385</v>
+        <v>106137.1517703815</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252098</v>
+        <v>316711.9424252132</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113904</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313438</v>
+        <v>24677.2460931337</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817121</v>
+        <v>76496.15793817192</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563266</v>
+        <v>261372.5469563275</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687061</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687058</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687066</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687076</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485723</v>
+        <v>58810.42201485698</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249187.8265133895</v>
+        <v>249187.8265133894</v>
       </c>
       <c r="C6" t="n">
-        <v>292091.427889679</v>
+        <v>292091.4278896821</v>
       </c>
       <c r="D6" t="n">
-        <v>153207.6603561045</v>
+        <v>153207.6603561008</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850706</v>
+        <v>44004.29326878479</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054026</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054033</v>
+        <v>569164.3297456817</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.329745681</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054027</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="J6" t="n">
-        <v>497884.2261342639</v>
+        <v>496909.6348745421</v>
       </c>
       <c r="K6" t="n">
-        <v>545461.6749122686</v>
+        <v>544487.0836525476</v>
       </c>
       <c r="L6" t="n">
-        <v>493642.7630672316</v>
+        <v>492668.1718075091</v>
       </c>
       <c r="M6" t="n">
-        <v>435337.9057715661</v>
+        <v>434363.3145118437</v>
       </c>
       <c r="N6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.3297456815</v>
       </c>
       <c r="O6" t="n">
-        <v>570138.9210054032</v>
+        <v>569164.3297456811</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.329745681</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593899</v>
+        <v>117.5602045593872</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464232</v>
+        <v>372.0396308464201</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026464</v>
+        <v>82.53894384026189</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576967</v>
+        <v>260.1834596576995</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406778</v>
+        <v>95.8831171440646</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081355</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406755</v>
+        <v>95.88311714406483</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081327</v>
+        <v>302.2476419081355</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406778</v>
+        <v>95.8831171440646</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081324</v>
+        <v>302.2476419081355</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>377.7351317846827</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.8510996945768738</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>75.32756803459219</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>188.2339252492739</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7238167216225</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27557,13 +27557,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>82.24660231436351</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128714</v>
+        <v>252.8468681266221</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>89.60799601106417</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.47168056056231</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281895</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129668</v>
+        <v>84.45800155129703</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>8.755484727294061</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.6867151131576</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>105.2027839287208</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.371217643585</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322651</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>65.6082846067429</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>304.3322208207219</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,10 +28107,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.340218094104872e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.230401792092187e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28338,10 +28338,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.330580173293129e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-7.699684170639784e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.285915741704982e-12</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246828</v>
+        <v>0.4726038374246719</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025533</v>
+        <v>4.840054050025422</v>
       </c>
       <c r="I5" t="n">
-        <v>18.2200594423151</v>
+        <v>18.22005944231468</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662321</v>
+        <v>40.11165994662228</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481004</v>
+        <v>60.11698038480866</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439569</v>
+        <v>74.58043007439397</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819689</v>
+        <v>82.98509856819499</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127977</v>
+        <v>84.32788422127784</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288809</v>
+        <v>79.62842981288625</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646622</v>
+        <v>67.96102257646466</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869475</v>
+        <v>51.03589764869358</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262825</v>
+        <v>29.68720080262758</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531497</v>
+        <v>10.76945994531472</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06882329832655</v>
+        <v>2.068823298326502</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397462</v>
+        <v>0.03780830699397374</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560463</v>
+        <v>0.2528653456560405</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941289</v>
+        <v>2.442146890941233</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596331</v>
+        <v>8.70610948859613</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182848</v>
+        <v>23.89022987182793</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078358</v>
+        <v>40.83220803078264</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483584</v>
+        <v>54.90394270483458</v>
       </c>
       <c r="M6" t="n">
-        <v>64.0703114848675</v>
+        <v>64.07031148486604</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271004</v>
+        <v>65.76606198270852</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106816</v>
+        <v>60.16309827106679</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496905</v>
+        <v>48.28619043496794</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128759</v>
+        <v>32.27803956128685</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134646</v>
+        <v>15.6998326013461</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707698</v>
+        <v>4.696862889707591</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359239</v>
+        <v>1.019224792359215</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368726</v>
+        <v>0.01663587800368688</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005392</v>
+        <v>0.2119938115005343</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886614</v>
+        <v>1.88481770588657</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761671</v>
+        <v>6.375232076761526</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308812</v>
+        <v>14.98796247308778</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342628</v>
+        <v>24.62982646342571</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072562</v>
+        <v>31.5176981207249</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094361</v>
+        <v>33.23099356094284</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898708</v>
+        <v>32.44083480898634</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736713</v>
+        <v>29.96436164736645</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275611</v>
+        <v>25.63968789275552</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846788</v>
+        <v>17.75159088846747</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651515</v>
+        <v>9.532012651651296</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513941</v>
+        <v>3.694473969513856</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477582</v>
+        <v>0.9057917400477373</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912033</v>
+        <v>0.01156329880912007</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>124.3809279722199</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>67.64407789397694</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201069</v>
+        <v>28.16237059200976</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109942</v>
+        <v>164.1725419109929</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548589</v>
+        <v>256.4752296548572</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337566</v>
+        <v>302.1523988337548</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036673</v>
+        <v>292.2617450366711</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539467</v>
+        <v>230.3303996539449</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926793</v>
+        <v>158.5267349926777</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414995</v>
+        <v>41.04519843414877</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557062</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>144.1761635136106</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284208</v>
+        <v>287.1899082284195</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464232</v>
+        <v>269.693355270291</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>372.0396308464201</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033533</v>
+        <v>311.4291731033519</v>
       </c>
       <c r="P6" t="n">
-        <v>232.774551660576</v>
+        <v>232.7745516605749</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111152</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543424</v>
+        <v>2.360334637542859</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104177</v>
+        <v>59.10772338104104</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278419</v>
+        <v>72.81487052278342</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821567</v>
+        <v>76.57300718821493</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140681</v>
+        <v>54.54948956140612</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9182471576496</v>
+        <v>22.91824715764901</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296115</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951379</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36457,7 +36457,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>356.012295623815</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
